--- a/source/240919medication_lists.xlsx
+++ b/source/240919medication_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinsuke\Dropbox\220601medication_eq\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED91D1-87F9-4224-8B3C-4EE5EA560221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DE151-8867-46B1-87A8-0BA35F89BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2030" windowWidth="22560" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="1690" windowWidth="22560" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annot" sheetId="2" r:id="rId1"/>
@@ -4180,10 +4180,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>Estimating according to maximum daily dose available</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lemborexant</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -5317,6 +5313,9 @@
   </si>
   <si>
     <t>Originally 300 of IMPeq as well, but deleted due to be also calced in CPeq dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating according to maximum daily dose available. See https://onlinelibrary.wiley.com/doi/full/10.1111/pcn.13709 </t>
   </si>
 </sst>
 </file>
@@ -5878,10 +5877,10 @@
         <v>373</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1569</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1570</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1161</v>
@@ -5907,7 +5906,7 @@
         <v>666</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>CONCATENATE(E2,"(",C2,")")</f>
@@ -5934,7 +5933,7 @@
         <v>814</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>CONCATENATE(E3,"(",C3,")")</f>
@@ -5961,7 +5960,7 @@
         <v>918</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" ref="F4:F67" si="0">CONCATENATE(E4,"(",C4,")")</f>
@@ -5976,13 +5975,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6009,7 +6008,7 @@
         <v>665</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6033,7 +6032,7 @@
         <v>713</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6059,7 +6058,7 @@
         <v>745</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6085,7 +6084,7 @@
         <v>658</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6111,7 +6110,7 @@
         <v>725</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6137,7 +6136,7 @@
         <v>659</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6165,7 +6164,7 @@
         <v>662</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6191,7 +6190,7 @@
         <v>660</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6217,7 +6216,7 @@
         <v>664</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6243,7 +6242,7 @@
         <v>683</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6265,7 +6264,7 @@
         <v>1134</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6291,7 +6290,7 @@
         <v>722</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6319,7 +6318,7 @@
         <v>655</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6347,7 +6346,7 @@
         <v>795</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6369,7 +6368,7 @@
         <v>1029</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6397,7 +6396,7 @@
         <v>649</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6419,7 +6418,7 @@
         <v>976</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6441,7 +6440,7 @@
         <v>975</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6489,7 +6488,7 @@
         <v>1046</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6515,7 +6514,7 @@
         <v>828</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6541,7 +6540,7 @@
         <v>906</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6567,7 +6566,7 @@
         <v>890</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6589,7 +6588,7 @@
         <v>983</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6615,7 +6614,7 @@
         <v>830</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6641,7 +6640,7 @@
         <v>891</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6663,7 +6662,7 @@
         <v>979</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6693,7 +6692,7 @@
         <v>833</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6719,7 +6718,7 @@
         <v>838</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6741,7 +6740,7 @@
         <v>984</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6767,7 +6766,7 @@
         <v>831</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6789,7 +6788,7 @@
         <v>986</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6815,7 +6814,7 @@
         <v>827</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6841,7 +6840,7 @@
         <v>903</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6863,7 +6862,7 @@
         <v>1093</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6891,7 +6890,7 @@
         <v>695</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6919,7 +6918,7 @@
         <v>753</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6943,7 +6942,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6965,7 +6964,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6992,7 +6991,7 @@
         <v>707</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7016,7 +7015,7 @@
         <v>714</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7034,7 +7033,7 @@
         <v>991</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7058,7 +7057,7 @@
         <v>676</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7082,7 +7081,7 @@
         <v>708</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7100,7 +7099,7 @@
         <v>999</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7118,7 +7117,7 @@
         <v>1136</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7145,7 +7144,7 @@
         <v>852</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7171,7 +7170,7 @@
         <v>706</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7196,7 +7195,7 @@
         <v>656</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7222,7 +7221,7 @@
         <v>874</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7250,7 +7249,7 @@
         <v>882</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7276,7 +7275,7 @@
         <v>867</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7298,7 +7297,7 @@
         <v>1000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7326,7 +7325,7 @@
         <v>705</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7351,7 +7350,7 @@
         <v>875</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7377,7 +7376,7 @@
         <v>734</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7403,7 +7402,7 @@
         <v>704</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7420,13 +7419,13 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7450,7 +7449,7 @@
         <v>1002</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7478,7 +7477,7 @@
         <v>719</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7504,7 +7503,7 @@
         <v>646</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7530,7 +7529,7 @@
         <v>851</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7552,7 +7551,7 @@
         <v>1074</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" ref="F68:F131" si="1">CONCATENATE(E68,"(",C68,")")</f>
@@ -7578,7 +7577,7 @@
         <v>826</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7604,7 +7603,7 @@
         <v>716</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7630,7 +7629,7 @@
         <v>761</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7655,7 +7654,7 @@
         <v>671</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7683,7 +7682,7 @@
         <v>689</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7711,7 +7710,7 @@
         <v>893</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7737,7 +7736,7 @@
         <v>680</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7763,7 +7762,7 @@
         <v>869</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7789,7 +7788,7 @@
         <v>679</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7813,7 +7812,7 @@
         <v>888</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7837,7 +7836,7 @@
         <v>684</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7864,7 +7863,7 @@
         <v>681</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7888,7 +7887,7 @@
         <v>757</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7913,7 +7912,7 @@
         <v>688</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7938,7 +7937,7 @@
         <v>715</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7962,7 +7961,7 @@
         <v>821</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7980,7 +7979,7 @@
         <v>1026</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8004,7 +8003,7 @@
         <v>822</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8022,7 +8021,7 @@
         <v>1139</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8043,7 +8042,7 @@
         <v>1140</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8070,7 +8069,7 @@
         <v>748</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8094,7 +8093,7 @@
         <v>710</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8118,7 +8117,7 @@
         <v>894</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8142,7 +8141,7 @@
         <v>758</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8167,7 +8166,7 @@
         <v>1203</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8194,7 +8193,7 @@
         <v>889</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8218,7 +8217,7 @@
         <v>675</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8245,7 +8244,7 @@
         <v>738</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F96" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8269,7 +8268,7 @@
         <v>799</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8287,7 +8286,7 @@
         <v>1027</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8305,7 +8304,7 @@
         <v>1144</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8326,7 +8325,7 @@
         <v>1143</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8351,7 +8350,7 @@
         <v>743</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8363,13 +8362,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="C102" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>802</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8390,13 +8389,13 @@
         <v>139</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>802</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8411,13 +8410,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="C104" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>804</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8444,7 +8443,7 @@
         <v>804</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8459,13 +8458,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="C106" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>806</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8492,7 +8491,7 @@
         <v>806</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8519,7 +8518,7 @@
         <v>651</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8538,7 +8537,7 @@
         <v>654</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8565,7 +8564,7 @@
         <v>654</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8589,7 +8588,7 @@
         <v>808</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8613,7 +8612,7 @@
         <v>674</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8631,7 +8630,7 @@
         <v>1028</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8655,7 +8654,7 @@
         <v>872</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8682,7 +8681,7 @@
         <v>873</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8709,14 +8708,14 @@
         <v>752</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>deebigo(デエビゴ)</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>1068</v>
@@ -8736,7 +8735,7 @@
         <v>669</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8763,7 +8762,7 @@
         <v>813</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8787,7 +8786,7 @@
         <v>900</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8811,7 +8810,7 @@
         <v>901</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8829,7 +8828,7 @@
         <v>1146</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8856,7 +8855,7 @@
         <v>916</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8883,7 +8882,7 @@
         <v>876</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8907,7 +8906,7 @@
         <v>667</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8931,7 +8930,7 @@
         <v>862</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8955,7 +8954,7 @@
         <v>909</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8976,7 +8975,7 @@
         <v>1092</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9000,7 +8999,7 @@
         <v>910</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9024,7 +9023,7 @@
         <v>912</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9048,7 +9047,7 @@
         <v>682</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9072,7 +9071,7 @@
         <v>911</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9096,7 +9095,7 @@
         <v>870</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" ref="F132:F195" si="2">CONCATENATE(E132,"(",C132,")")</f>
@@ -9120,7 +9119,7 @@
         <v>856</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9144,7 +9143,7 @@
         <v>887</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9168,7 +9167,7 @@
         <v>849</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9192,7 +9191,7 @@
         <v>863</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9216,7 +9215,7 @@
         <v>895</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9234,7 +9233,7 @@
         <v>1091</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9261,7 +9260,7 @@
         <v>866</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9285,7 +9284,7 @@
         <v>756</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9310,7 +9309,7 @@
         <v>776</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F141" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9334,7 +9333,7 @@
         <v>861</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9358,7 +9357,7 @@
         <v>860</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F143" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9382,7 +9381,7 @@
         <v>881</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9406,7 +9405,7 @@
         <v>902</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9424,7 +9423,7 @@
         <v>1090</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9451,7 +9450,7 @@
         <v>703</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9476,7 +9475,7 @@
         <v>687</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9495,7 +9494,7 @@
         <v>1089</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9522,7 +9521,7 @@
         <v>781</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F150" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9546,7 +9545,7 @@
         <v>787</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9570,7 +9569,7 @@
         <v>848</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9594,7 +9593,7 @@
         <v>789</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9618,7 +9617,7 @@
         <v>691</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9643,7 +9642,7 @@
         <v>723</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9667,7 +9666,7 @@
         <v>724</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9685,7 +9684,7 @@
         <v>1148</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9706,7 +9705,7 @@
         <v>1206</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9733,7 +9732,7 @@
         <v>737</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F159" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9757,7 +9756,7 @@
         <v>850</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9769,13 +9768,13 @@
     </row>
     <row r="161" spans="1:9">
       <c r="C161" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9802,7 +9801,7 @@
         <v>1088</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F162" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9823,7 +9822,7 @@
         <v>1150</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F163" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9850,7 +9849,7 @@
         <v>791</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F164" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9874,7 +9873,7 @@
         <v>798</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F165" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9892,7 +9891,7 @@
         <v>1048</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F166" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9913,7 +9912,7 @@
         <v>1086</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F167" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9940,7 +9939,7 @@
         <v>871</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F168" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9958,7 +9957,7 @@
         <v>1087</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="2"/>
@@ -9985,7 +9984,7 @@
         <v>847</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F170" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10009,7 +10008,7 @@
         <v>886</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F171" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10027,7 +10026,7 @@
         <v>1010</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F172" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10054,7 +10053,7 @@
         <v>774</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F173" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10078,7 +10077,7 @@
         <v>801</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F174" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10102,7 +10101,7 @@
         <v>845</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F175" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10120,7 +10119,7 @@
         <v>1152</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F176" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10145,7 +10144,7 @@
         <v>815</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F177" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10169,7 +10168,7 @@
         <v>817</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F178" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10193,7 +10192,7 @@
         <v>818</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F179" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10211,7 +10210,7 @@
         <v>1020</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F180" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10238,7 +10237,7 @@
         <v>829</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F181" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10262,7 +10261,7 @@
         <v>773</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F182" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10274,13 +10273,13 @@
     </row>
     <row r="183" spans="1:9">
       <c r="C183" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F183" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10301,7 +10300,7 @@
         <v>1021</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F184" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10322,7 +10321,7 @@
         <v>1022</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10346,7 +10345,7 @@
         <v>825</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F186" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10364,7 +10363,7 @@
         <v>1154</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F187" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10383,7 +10382,7 @@
         <v>1023</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F188" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10404,7 +10403,7 @@
         <v>1019</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F189" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10422,7 +10421,7 @@
         <v>1018</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F190" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10446,7 +10445,7 @@
         <v>782</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F191" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10470,7 +10469,7 @@
         <v>696</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F192" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10495,7 +10494,7 @@
         <v>769</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F193" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10519,7 +10518,7 @@
         <v>697</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F194" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10544,7 +10543,7 @@
         <v>699</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F195" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10569,7 +10568,7 @@
         <v>739</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" ref="F196:F259" si="3">CONCATENATE(E196,"(",C196,")")</f>
@@ -10593,7 +10592,7 @@
         <v>811</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10617,7 +10616,7 @@
         <v>904</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10644,7 +10643,7 @@
         <v>650</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10665,7 +10664,7 @@
         <v>1030</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F200" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10692,7 +10691,7 @@
         <v>879</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F201" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10716,7 +10715,7 @@
         <v>885</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F202" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10740,7 +10739,7 @@
         <v>877</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10764,7 +10763,7 @@
         <v>878</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F204" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10782,7 +10781,7 @@
         <v>1156</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F205" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10809,7 +10808,7 @@
         <v>678</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F206" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10830,7 +10829,7 @@
         <v>1031</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F207" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10851,7 +10850,7 @@
         <v>1032</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F208" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10878,7 +10877,7 @@
         <v>686</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F209" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10905,7 +10904,7 @@
         <v>720</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F210" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10929,7 +10928,7 @@
         <v>735</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F211" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10953,7 +10952,7 @@
         <v>731</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10977,7 +10976,7 @@
         <v>754</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11002,7 +11001,7 @@
         <v>727</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F214" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11020,7 +11019,7 @@
         <v>1033</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11044,7 +11043,7 @@
         <v>728</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F216" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11068,7 +11067,7 @@
         <v>762</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F217" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11087,7 +11086,7 @@
         <v>1158</v>
       </c>
       <c r="E218" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11112,7 +11111,7 @@
         <v>794</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11136,7 +11135,7 @@
         <v>844</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F220" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11163,7 +11162,7 @@
         <v>732</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F221" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11187,7 +11186,7 @@
         <v>920</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F222" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11208,7 +11207,7 @@
         <v>1034</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F223" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11229,7 +11228,7 @@
         <v>1035</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F224" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11256,7 +11255,7 @@
         <v>700</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F225" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11281,7 +11280,7 @@
         <v>750</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F226" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11305,7 +11304,7 @@
         <v>751</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11329,7 +11328,7 @@
         <v>780</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F228" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11347,7 +11346,7 @@
         <v>1159</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11372,7 +11371,7 @@
         <v>701</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F230" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11397,7 +11396,7 @@
         <v>767</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F231" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11409,13 +11408,13 @@
     </row>
     <row r="232" spans="1:9">
       <c r="C232" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F232" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11430,13 +11429,13 @@
     </row>
     <row r="233" spans="1:9">
       <c r="C233" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11463,7 +11462,7 @@
         <v>755</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F234" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11488,7 +11487,7 @@
         <v>770</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F235" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11512,7 +11511,7 @@
         <v>896</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F236" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11536,7 +11535,7 @@
         <v>771</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F237" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11560,7 +11559,7 @@
         <v>793</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F238" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11578,7 +11577,7 @@
         <v>1037</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F239" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11605,7 +11604,7 @@
         <v>648</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F240" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11629,7 +11628,7 @@
         <v>733</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F241" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11653,7 +11652,7 @@
         <v>772</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F242" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11677,7 +11676,7 @@
         <v>729</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F243" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11701,7 +11700,7 @@
         <v>797</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F244" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11731,7 +11730,7 @@
         <v>1197</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F245" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11755,7 +11754,7 @@
         <v>1199</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F246" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11773,13 +11772,13 @@
     </row>
     <row r="247" spans="1:9">
       <c r="C247" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>997</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F247" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11797,13 +11796,13 @@
     </row>
     <row r="248" spans="1:9">
       <c r="C248" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>996</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F248" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11833,7 +11832,7 @@
         <v>673</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F249" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11857,7 +11856,7 @@
         <v>775</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F250" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11884,7 +11883,7 @@
         <v>747</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F251" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11908,7 +11907,7 @@
         <v>853</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F252" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11932,7 +11931,7 @@
         <v>677</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F253" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11959,7 +11958,7 @@
         <v>663</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F254" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11983,7 +11982,7 @@
         <v>742</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F255" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12007,7 +12006,7 @@
         <v>740</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F256" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12031,7 +12030,7 @@
         <v>905</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12055,14 +12054,14 @@
         <v>690</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F258" s="1" t="str">
         <f t="shared" si="3"/>
         <v>osuporotto(オスポロット)</v>
       </c>
       <c r="H258" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1068</v>
@@ -12082,14 +12081,14 @@
         <v>692</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F259" s="1" t="str">
         <f t="shared" si="3"/>
         <v>onjenthisu(オンジェンティス)</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1068</v>
@@ -12109,14 +12108,14 @@
         <v>693</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F260" s="1" t="str">
         <f t="shared" ref="F260:F304" si="4">CONCATENATE(E260,"(",C260,")")</f>
         <v>gabapen(ガバペン)</v>
       </c>
       <c r="H260" s="22" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1068</v>
@@ -12136,14 +12135,14 @@
         <v>694</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F261" s="1" t="str">
         <f t="shared" si="4"/>
         <v>kaberugorin(カベルゴリン)</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1068</v>
@@ -12163,14 +12162,14 @@
         <v>702</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F262" s="1" t="str">
         <f t="shared" si="4"/>
         <v>kuramporu(クランポール)</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1068</v>
@@ -12190,14 +12189,14 @@
         <v>709</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F263" s="1" t="str">
         <f t="shared" si="4"/>
         <v>komutan(コムタン)</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1068</v>
@@ -12217,14 +12216,14 @@
         <v>711</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F264" s="1" t="str">
         <f t="shared" si="4"/>
         <v>konsata(コンサータ)</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1068</v>
@@ -12244,14 +12243,14 @@
         <v>718</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F265" s="1" t="str">
         <f t="shared" si="4"/>
         <v>zaronchinshiroppu(ザロンチンシロップ)</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1068</v>
@@ -12271,14 +12270,14 @@
         <v>914</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F266" s="1" t="str">
         <f t="shared" si="4"/>
         <v>shukakariumu(シュウカカリウム)</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1068</v>
@@ -12289,7 +12288,7 @@
         <v>334</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>621</v>
@@ -12298,14 +12297,14 @@
         <v>726</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F267" s="1" t="str">
         <f t="shared" si="4"/>
         <v>sutoratera(ストラテラ)</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1068</v>
@@ -12325,14 +12324,14 @@
         <v>736</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F268" s="1" t="str">
         <f t="shared" si="4"/>
         <v>seregirin(セレギリン)</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1068</v>
@@ -12352,14 +12351,14 @@
         <v>741</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F269" s="1" t="str">
         <f t="shared" si="4"/>
         <v>zonisamido(ゾニサミド)</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1068</v>
@@ -12370,7 +12369,7 @@
         <v>201</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>759</v>
@@ -12379,14 +12378,14 @@
         <v>760</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F270" s="1" t="str">
         <f t="shared" si="4"/>
         <v>dhuodopa(デュオドーパ)</v>
       </c>
       <c r="H270" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1068</v>
@@ -12406,14 +12405,14 @@
         <v>763</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F271" s="1" t="str">
         <f t="shared" si="4"/>
         <v>dopasuton(ドパストン)</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1068</v>
@@ -12433,14 +12432,14 @@
         <v>764</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F272" s="1" t="str">
         <f t="shared" si="4"/>
         <v>dopazoru(ドパゾール)</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1068</v>
@@ -12451,7 +12450,7 @@
         <v>127</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>550</v>
@@ -12460,14 +12459,14 @@
         <v>765</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F273" s="1" t="str">
         <f t="shared" si="4"/>
         <v>topina(トピナ)</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1068</v>
@@ -12487,14 +12486,14 @@
         <v>766</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>topiramato(トピラマート)</v>
       </c>
       <c r="H274" s="23" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1068</v>
@@ -12514,14 +12513,14 @@
         <v>768</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F275" s="1" t="str">
         <f t="shared" si="4"/>
         <v>dopusu(ドプス)</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1068</v>
@@ -12532,7 +12531,7 @@
         <v>81</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>1193</v>
@@ -12541,14 +12540,14 @@
         <v>1194</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F276" s="1" t="str">
         <f t="shared" si="4"/>
         <v>torikuroriru(トリクロリール)</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1068</v>
@@ -12568,14 +12567,14 @@
         <v>778</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F277" s="1" t="str">
         <f t="shared" si="4"/>
         <v>torerifu(トレリーフ)</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1068</v>
@@ -12595,14 +12594,14 @@
         <v>779</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F278" s="1" t="str">
         <f t="shared" si="4"/>
         <v>dorokishidopa(ドロキシドパ)</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1068</v>
@@ -12613,7 +12612,7 @@
         <v>199</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>783</v>
@@ -12622,14 +12621,14 @@
         <v>784</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>neodopasuton(ネオドパストン)</v>
       </c>
       <c r="H279" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1068</v>
@@ -12640,7 +12639,7 @@
         <v>195</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>785</v>
@@ -12649,14 +12648,14 @@
         <v>786</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>neodopazoru(ネオドパゾール)</v>
       </c>
       <c r="H280" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1068</v>
@@ -12667,7 +12666,7 @@
         <v>186</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>563</v>
@@ -12676,14 +12675,14 @@
         <v>788</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>noriasuto(ノウリアスト)</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1068</v>
@@ -12694,7 +12693,7 @@
         <v>161</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>556</v>
@@ -12703,14 +12702,14 @@
         <v>790</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>paroderu(パーロデル)</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1068</v>
@@ -12721,7 +12720,7 @@
         <v>175</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>559</v>
@@ -12730,14 +12729,14 @@
         <v>800</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F283" s="1" t="str">
         <f t="shared" si="4"/>
         <v>bi・shifuroru(ビ・シフロール)</v>
       </c>
       <c r="H283" s="23" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1068</v>
@@ -12757,14 +12756,14 @@
         <v>809</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>bibanse(ビバンセ)</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1068</v>
@@ -12775,7 +12774,7 @@
         <v>177</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>638</v>
@@ -12784,14 +12783,14 @@
         <v>819</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F285" s="1" t="str">
         <f t="shared" si="4"/>
         <v>puramipekisoru(プラミペキソール)</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1068</v>
@@ -12811,14 +12810,14 @@
         <v>820</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F286" s="1" t="str">
         <f t="shared" si="4"/>
         <v>purimidon(プリミドン)</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1068</v>
@@ -12829,7 +12828,7 @@
         <v>365</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>366</v>
@@ -12838,7 +12837,7 @@
         <v>823</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12846,7 +12845,7 @@
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="23" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1068</v>
@@ -12857,7 +12856,7 @@
         <v>162</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>557</v>
@@ -12866,7 +12865,7 @@
         <v>834</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F288" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12874,7 +12873,7 @@
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1068</v>
@@ -12894,14 +12893,14 @@
         <v>836</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F289" s="1" t="str">
         <f t="shared" si="4"/>
         <v>buromokuripuchimmeshiru(ブロモクリプチンメシル)</v>
       </c>
       <c r="H289" s="23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1068</v>
@@ -12921,14 +12920,14 @@
         <v>839</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F290" s="1" t="str">
         <f t="shared" si="4"/>
         <v>betanamin(ベタナミン)</v>
       </c>
       <c r="H290" s="23" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1068</v>
@@ -12948,14 +12947,14 @@
         <v>843</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F291" s="1" t="str">
         <f t="shared" si="4"/>
         <v>perugorido(ペルゴリド)</v>
       </c>
       <c r="H291" s="23" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>1068</v>
@@ -12975,14 +12974,14 @@
         <v>841</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F292" s="1" t="str">
         <f t="shared" si="4"/>
         <v>perugoridomeshiru(ペルゴリドメシル)</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>1068</v>
@@ -13002,14 +13001,14 @@
         <v>846</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F293" s="1" t="str">
         <f t="shared" si="4"/>
         <v>perumakkusu(ペルマックス)</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>1068</v>
@@ -13029,14 +13028,14 @@
         <v>855</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F294" s="1" t="str">
         <f t="shared" si="4"/>
         <v>madopa(マドパー)</v>
       </c>
       <c r="H294" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>1068</v>
@@ -13056,14 +13055,14 @@
         <v>857</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F295" s="1" t="str">
         <f t="shared" si="4"/>
         <v>minoare(ミノアレ)</v>
       </c>
       <c r="H295" s="23" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>1068</v>
@@ -13083,14 +13082,14 @@
         <v>859</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F296" s="1" t="str">
         <f t="shared" si="4"/>
         <v>mirapekkusu(ミラペックス)</v>
       </c>
       <c r="H296" s="23" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I296" s="1" t="s">
         <v>1068</v>
@@ -13110,14 +13109,14 @@
         <v>865</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F297" s="1" t="str">
         <f t="shared" si="4"/>
         <v>meneshitto(メネシット)</v>
       </c>
       <c r="H297" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>1068</v>
@@ -13137,14 +13136,14 @@
         <v>868</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F298" s="1" t="str">
         <f t="shared" si="4"/>
         <v>modhiodaru(モディオダール)</v>
       </c>
       <c r="H298" s="23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>1068</v>
@@ -13164,14 +13163,14 @@
         <v>880</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F299" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ritarin(リタリン)</v>
       </c>
       <c r="H299" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>1068</v>
@@ -13191,14 +13190,14 @@
         <v>884</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F300" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ririka(リリカ)</v>
       </c>
       <c r="H300" s="23" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>1068</v>
@@ -13218,14 +13217,14 @@
         <v>892</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F301" s="1" t="str">
         <f t="shared" si="4"/>
         <v>rekippu(レキップ)</v>
       </c>
       <c r="H301" s="23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>1068</v>
@@ -13245,14 +13244,14 @@
         <v>897</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F302" s="1" t="str">
         <f t="shared" si="4"/>
         <v>rebechirasetamu(レベチラセタム)</v>
       </c>
       <c r="H302" s="23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>1068</v>
@@ -13272,14 +13271,14 @@
         <v>899</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F303" s="1" t="str">
         <f t="shared" si="4"/>
         <v>rebodopa・karubidopa(レボドパ・カルビドパ)</v>
       </c>
       <c r="H303" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>1068</v>
@@ -13299,14 +13298,14 @@
         <v>907</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F304" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ropiniroru(ロピニロール)</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>1068</v>
@@ -13330,7 +13329,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13"/>
@@ -13824,7 +13823,7 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="14" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14554,7 +14553,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -14562,7 +14561,7 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="14" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -15249,7 +15248,7 @@
         <v>20</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>1214</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="340" spans="2:7">
